--- a/output/anl_training_set_updated_20190215.xlsx
+++ b/output/anl_training_set_updated_20190215.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/adenylate_forming_phylo/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D68DB5-C471-AD4E-83E0-78AB08370D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFFE9A-8113-4A4C-A128-C7B945C4FA35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24920" yWindow="2220" windowWidth="24240" windowHeight="18260"/>
+    <workbookView xWindow="4880" yWindow="2600" windowWidth="28680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anl_training_set_updated_201902" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9217" uniqueCount="2914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9217" uniqueCount="2915">
   <si>
     <t>entry</t>
   </si>
@@ -8762,12 +8762,15 @@
   </si>
   <si>
     <t>MPVITVYDNVVSGPEEEKIPAHLHFGQFMFDQFKNGGGKVAQVDAETGEQVTYRTVLQNSVNLAASLQKLGLKKGDLVSLSSENRFEFTVASLAVFYCGGVLSTLNITYSPEGSVATHRKDGKFCWLDPYLGWYELYYLNCSVGHRKHTIKTGLALIPWFHAYGFITSCAMMSLNFQVVFLIRFDEKQYLETIQKYKVNMTTLVPPLAVFLAKHPLVTNYDLTSLNEIWCGAAPLSSEVQKTITARTGIPLIRQGYGLTEVTMACCVDVLGRVKEGSCGPPAPGMKIKVIDIETGKKLGPKQEGELWIKSPLRMKGYMGDMASSDALFDAEGYVRTGDIGYYDNEGYFFIVDRLKELIKYKGFQVAPAELEALLLQHPAIADCAVVGLPDEVAGELPLAFVVPQPGVKVTESDIVKYVGSKVSSAKHLRGGVIFVTEIPKNASGKILRRGLREMLQEKQKSKL</t>
+  </si>
+  <si>
+    <t>short_chan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -8904,7 +8907,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9084,6 +9087,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -9245,9 +9254,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9602,11 +9613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20548,74 +20559,74 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="155" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
         <v>1733</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>1734</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>1735</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="3">
         <v>485</v>
       </c>
-      <c r="F155" t="s">
-        <v>27</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="F155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>1737</v>
       </c>
-      <c r="H155" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I155" t="s">
-        <v>1726</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1727</v>
-      </c>
-      <c r="K155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L155" t="s">
-        <v>27</v>
-      </c>
-      <c r="M155" t="s">
+      <c r="H155" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M155" s="3" t="s">
         <v>1738</v>
       </c>
-      <c r="N155" t="s">
+      <c r="N155" s="3" t="s">
         <v>1739</v>
       </c>
-      <c r="O155" t="s">
+      <c r="O155" s="3" t="s">
         <v>1740</v>
       </c>
-      <c r="P155">
+      <c r="P155" s="3">
         <v>2002</v>
       </c>
-      <c r="Q155">
+      <c r="Q155" s="3">
         <v>5</v>
       </c>
-      <c r="R155">
+      <c r="R155" s="3">
         <v>23</v>
       </c>
-      <c r="S155" t="s">
+      <c r="S155" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T155" t="s">
+      <c r="T155" s="3" t="s">
         <v>1741</v>
       </c>
-      <c r="U155" t="s">
+      <c r="U155" s="3" t="s">
         <v>1742</v>
       </c>
-      <c r="V155" t="s">
-        <v>27</v>
-      </c>
-      <c r="W155" t="s">
+      <c r="V155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W155" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -20690,216 +20701,216 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="157" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="2">
         <v>355</v>
       </c>
-      <c r="F157" t="s">
-        <v>27</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="F157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="K157" t="s">
-        <v>27</v>
-      </c>
-      <c r="L157" t="s">
-        <v>27</v>
-      </c>
-      <c r="M157" t="s">
+      <c r="K157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M157" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="N157" t="s">
+      <c r="N157" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="O157" t="s">
+      <c r="O157" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="P157">
+      <c r="P157" s="2">
         <v>2011</v>
       </c>
-      <c r="Q157">
+      <c r="Q157" s="2">
         <v>7</v>
       </c>
-      <c r="R157">
+      <c r="R157" s="2">
         <v>14</v>
       </c>
-      <c r="S157" t="s">
+      <c r="S157" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="T157" t="s">
+      <c r="T157" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="U157" t="s">
+      <c r="U157" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="V157" t="s">
-        <v>27</v>
-      </c>
-      <c r="W157" t="s">
+      <c r="V157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W157" s="2" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="158" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>1765</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>1766</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="3">
         <v>1188</v>
       </c>
-      <c r="F158" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="F158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>1767</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P158" s="3">
+        <v>2012</v>
+      </c>
+      <c r="Q158" s="3">
+        <v>6</v>
+      </c>
+      <c r="R158" s="3">
+        <v>8</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="T158" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="U158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W158" s="3" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E159" s="2">
+        <v>556</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I159" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J159" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="K158" t="s">
-        <v>27</v>
-      </c>
-      <c r="L158" t="s">
-        <v>27</v>
-      </c>
-      <c r="M158" t="s">
-        <v>1768</v>
-      </c>
-      <c r="N158" t="s">
-        <v>1769</v>
-      </c>
-      <c r="O158" t="s">
-        <v>27</v>
-      </c>
-      <c r="P158">
-        <v>2012</v>
-      </c>
-      <c r="Q158">
-        <v>6</v>
-      </c>
-      <c r="R158">
-        <v>8</v>
-      </c>
-      <c r="S158" t="s">
-        <v>1770</v>
-      </c>
-      <c r="T158" t="s">
-        <v>1771</v>
-      </c>
-      <c r="U158" t="s">
-        <v>27</v>
-      </c>
-      <c r="V158" t="s">
-        <v>27</v>
-      </c>
-      <c r="W158" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E159">
-        <v>556</v>
-      </c>
-      <c r="F159" t="s">
-        <v>27</v>
-      </c>
-      <c r="G159" t="s">
-        <v>1777</v>
-      </c>
-      <c r="H159" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I159" t="s">
-        <v>1726</v>
-      </c>
-      <c r="J159" t="s">
-        <v>1727</v>
-      </c>
-      <c r="K159" t="s">
-        <v>27</v>
-      </c>
-      <c r="L159" t="s">
-        <v>27</v>
-      </c>
-      <c r="M159" t="s">
+      <c r="K159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M159" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="N159" t="s">
-        <v>27</v>
-      </c>
-      <c r="O159" t="s">
-        <v>27</v>
-      </c>
-      <c r="P159" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>27</v>
-      </c>
-      <c r="R159" t="s">
-        <v>27</v>
-      </c>
-      <c r="S159" t="s">
-        <v>27</v>
-      </c>
-      <c r="T159" t="s">
-        <v>27</v>
-      </c>
-      <c r="U159" t="s">
-        <v>27</v>
-      </c>
-      <c r="V159" t="s">
-        <v>27</v>
-      </c>
-      <c r="W159" t="s">
+      <c r="N159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W159" s="2" t="s">
         <v>1779</v>
       </c>
     </row>
